--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_7_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_7_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.59000000000056</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006510885207903216</v>
+        <v>1.895722738010086e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006510885207903216</v>
+        <v>1.895722738010086e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>46.76808540186236</v>
+        <v>59.66221048547899</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[19.78171558911893, 73.75445521460578]</t>
+          <t>[32.57714135249849, 86.74727961845949]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001091565391392102</v>
+        <v>5.842482304929675e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001091565391392102</v>
+        <v>5.842482304929675e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.46544762419704</v>
+        <v>1.075500187715424</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.698131700797731, 2.232763547596349]</t>
+          <t>[0.6100790538502707, 1.5409213215805782]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0003746138262143983</v>
+        <v>2.881253693542973e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0003746138262143983</v>
+        <v>2.881253693542973e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>62.92755506606304</v>
+        <v>61.43154385530821</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.49463463001602, 79.36047550211006]</t>
+          <t>[47.17948452922998, 75.68360318138645]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>9.056582150890335e-10</v>
+        <v>3.588795927100819e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>9.056582150890335e-10</v>
+        <v>3.588795927100819e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>19.621561561562</v>
+        <v>20.92792792792835</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.49645645645682</v>
+        <v>19.05755755755795</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.74666666666717</v>
+        <v>22.79829829829876</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.59000000000056</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006851308342583629</v>
+        <v>2.69810728081854e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006851308342583629</v>
+        <v>2.69810728081854e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>43.98673771556938</v>
+        <v>56.87253875958717</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[19.218014889522152, 68.7554605416166]</t>
+          <t>[30.32285830655057, 83.42221921262376]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0008457428698185332</v>
+        <v>8.648873359717868e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008457428698185332</v>
+        <v>8.648873359717868e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.616395018964118</v>
+        <v>1.012605439895809</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.861658045128733, 2.371131992799503]</t>
+          <t>[0.5471843060306538, 1.4780265737609648]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.674019897436658e-05</v>
+        <v>6.964518546248577e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>8.674019897436658e-05</v>
+        <v>6.964518546248577e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>63.17520258232852</v>
+        <v>61.89071627247141</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.58013983824493, 78.7702653264121]</t>
+          <t>[48.08469576113013, 75.6967367838127]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.024977963088759e-10</v>
+        <v>1.153210860138643e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.024977963088759e-10</v>
+        <v>1.153210860138643e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>19.0067867867872</v>
+        <v>21.18068068068111</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.93291291291326</v>
+        <v>19.31031031031069</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.08066066066114</v>
+        <v>23.05105105105152</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.59000000000056</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07059506854476783</v>
+        <v>0.0003074600776005187</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07059506854476783</v>
+        <v>0.0003074600776005187</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>27.25116384398031</v>
+        <v>52.34620857141648</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.978314371538687, 57.48064205949932]</t>
+          <t>[19.69824734204157, 84.99416980079138]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.07608813213809973</v>
+        <v>0.00231974209031649</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07608813213809973</v>
+        <v>0.00231974209031649</v>
       </c>
       <c r="P4" t="n">
-        <v>1.402552876377426</v>
+        <v>0.9119738433844242</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.05660527303765228, 2.861711025792504]</t>
+          <t>[0.3333421634439615, 1.490605523324887]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.05916820710759452</v>
+        <v>0.002708331939585085</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05916820710759452</v>
+        <v>0.002708331939585085</v>
       </c>
       <c r="T4" t="n">
-        <v>56.21285724443564</v>
+        <v>62.37880955676815</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[39.452204303918364, 72.97351018495291]</t>
+          <t>[45.544985768181846, 79.21263334535446]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.354338302090753e-08</v>
+        <v>2.104898033650215e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>2.354338302090753e-08</v>
+        <v>2.104898033650215e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>19.87771771771815</v>
+        <v>21.58508508508552</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.9348948948952</v>
+        <v>19.25975975976015</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.8205405405411</v>
+        <v>23.91041041041089</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.59000000000056</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003916430417135741</v>
+        <v>0.008929503845696574</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003916430417135741</v>
+        <v>0.008929503845696574</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>53.00761766328792</v>
+        <v>35.94764490943226</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[20.396698933248786, 85.61853639332705]</t>
+          <t>[6.9837368884765, 64.91155293038801]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002044086934237077</v>
+        <v>0.01614227333938789</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002044086934237077</v>
+        <v>0.01614227333938789</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7107106503616549</v>
+        <v>0.5094474573388847</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.1320789704211931, 1.2893423303021168]</t>
+          <t>[-0.3522105877898465, 1.371105502467616]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.01720543562539478</v>
+        <v>0.2399678817421349</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01720543562539478</v>
+        <v>0.2399678817421349</v>
       </c>
       <c r="T5" t="n">
-        <v>85.53965529749871</v>
+        <v>66.7655245223981</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[68.45398249920478, 102.62532809579264]</t>
+          <t>[51.328027251878986, 82.20302179291721]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.003464226798314e-13</v>
+        <v>3.259903458285862e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>4.003464226798314e-13</v>
+        <v>3.259903458285862e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>22.69543543543593</v>
+        <v>23.20270270270317</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.33879879879925</v>
+        <v>19.73998998999039</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.05207207207262</v>
+        <v>26.66541541541595</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.59000000000056</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.364815828965639e-06</v>
+        <v>0.004632973754676084</v>
       </c>
       <c r="I6" t="n">
-        <v>3.364815828965639e-06</v>
+        <v>0.004632973754676084</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>67.48156319411648</v>
+        <v>46.83658882795964</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[42.14980372076192, 92.81332266747103]</t>
+          <t>[13.695006034393458, 79.97817162152582]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.701112243430615e-06</v>
+        <v>0.006637254244109103</v>
       </c>
       <c r="O6" t="n">
-        <v>2.701112243430615e-06</v>
+        <v>0.006637254244109103</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01886842434588498</v>
+        <v>0.2830263651882694</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.44655270951926873, 0.4842895582110387]</t>
+          <t>[-0.5597632555945777, 1.1258159859711165]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9352848828136544</v>
+        <v>0.5022625480788236</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9352848828136544</v>
+        <v>0.5022625480788236</v>
       </c>
       <c r="T6" t="n">
-        <v>72.01125133096068</v>
+        <v>67.02943057522316</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[55.96707233110625, 88.0554303308151]</t>
+          <t>[48.399305958567126, 85.65955519187919]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.112954173265734e-11</v>
+        <v>4.396834230036006e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.112954173265734e-11</v>
+        <v>4.396834230036006e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>25.51315315315371</v>
+        <v>24.1126126126131</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.61759759759812</v>
+        <v>20.72572572572614</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.40870870870931</v>
+        <v>27.49949949950005</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.59000000000056</v>
+        <v>25.25000000000051</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.797924532949025e-06</v>
+        <v>0.001239142248212755</v>
       </c>
       <c r="I7" t="n">
-        <v>2.797924532949025e-06</v>
+        <v>0.001239142248212755</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>60.24364133941609</v>
+        <v>43.88045872423756</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[34.17866679781673, 86.30861588101544]</t>
+          <t>[13.735011009897008, 74.02590643857812]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.872225290873054e-05</v>
+        <v>0.005281799303205048</v>
       </c>
       <c r="O7" t="n">
-        <v>2.872225290873054e-05</v>
+        <v>0.005281799303205048</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2893158399702314</v>
+        <v>-0.6037895790683088</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.754736973835386, 0.17610529389492324]</t>
+          <t>[-1.2830528555201557, 0.07547369738353815]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.2170347393044385</v>
+        <v>0.08013264357139427</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2170347393044385</v>
+        <v>0.08013264357139427</v>
       </c>
       <c r="T7" t="n">
-        <v>62.14087914272228</v>
+        <v>64.65849197335655</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.74262222224682, 76.53913606319773]</t>
+          <t>[48.80140383023466, 80.51558011647843]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.460565167756613e-11</v>
+        <v>1.693669648972218e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>3.460565167756613e-11</v>
+        <v>1.693669648972218e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>1.178318318318347</v>
+        <v>2.426426426426477</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.7172372372372506</v>
+        <v>-0.3033033033033066</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.073873873873944</v>
+        <v>5.156156156156261</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.25000000000051</v>
+        <v>25.45000000000054</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00026656265660574</v>
+        <v>4.352541515761921e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00026656265660574</v>
+        <v>4.352541515761921e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.57563950805363</v>
+        <v>44.59758003159163</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[20.410593887109343, 74.74068512899792]</t>
+          <t>[19.89720004092658, 69.29796002225669]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0009790947673751216</v>
+        <v>0.0007078111493774575</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0009790947673751216</v>
+        <v>0.0007078111493774575</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.081789662497386</v>
+        <v>-0.8931054190385392</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.7233160902574642, -0.44026323473730855]</t>
+          <t>[-1.434000250287232, -0.3522105877898465]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.001437040238600584</v>
+        <v>0.001762562262686895</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001437040238600584</v>
+        <v>0.001762562262686895</v>
       </c>
       <c r="T8" t="n">
-        <v>67.7509312704094</v>
+        <v>61.54150630277946</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[52.181703002513615, 83.32015953830518]</t>
+          <t>[48.64113037779408, 74.44188222776484]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.732769566193838e-11</v>
+        <v>1.790789738720377e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.732769566193838e-11</v>
+        <v>1.790789738720377e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>4.347347347347437</v>
+        <v>3.617517517517594</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.769269269269307</v>
+        <v>1.426626626626659</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.925425425425567</v>
+        <v>5.80840840840853</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.25000000000051</v>
+        <v>25.45000000000054</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>4.950403700543227e-05</v>
+        <v>0.001378489277603756</v>
       </c>
       <c r="I9" t="n">
-        <v>4.950403700543227e-05</v>
+        <v>0.001378489277603756</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.54968808740333</v>
+        <v>51.50293556281895</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[22.994136981140628, 80.10523919366602]</t>
+          <t>[20.696475227109318, 82.30939589852858]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0007090921459877997</v>
+        <v>0.001563416426712649</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0007090921459877997</v>
+        <v>0.001563416426712649</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.094368612061309</v>
+        <v>-1.559789745926464</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.6604213424378491, -0.5283158816847697]</t>
+          <t>[-2.364842518017542, -0.754736973835386]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0003239293221548589</v>
+        <v>0.0003156624976066169</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0003239293221548589</v>
+        <v>0.0003156624976066169</v>
       </c>
       <c r="T9" t="n">
-        <v>68.89788491556686</v>
+        <v>68.51033489453204</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[53.82941561788661, 83.96635421324712]</t>
+          <t>[49.210074899590246, 87.81059488947383]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.435296739937257e-12</v>
+        <v>6.11942341244287e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>6.435296739937257e-12</v>
+        <v>6.11942341244287e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>4.397897897897987</v>
+        <v>6.317917917918052</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.123123123123166</v>
+        <v>3.057057057057122</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.672672672672809</v>
+        <v>9.578778778778982</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.25000000000051</v>
+        <v>25.45000000000054</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009505500154523006</v>
+        <v>0.0007823125990416013</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0009505500154523006</v>
+        <v>0.0007823125990416013</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>44.29230259726933</v>
+        <v>46.37107065694269</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[15.241933607602675, 73.34267158693598]</t>
+          <t>[20.072205468173067, 72.66993584571232]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.003613714459995254</v>
+        <v>0.0009122142330559857</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003613714459995254</v>
+        <v>0.0009122142330559857</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.912000333716311</v>
+        <v>-1.610105544182156</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.616421509296004, -1.207579158136617]</t>
+          <t>[-2.364842518017542, -0.8553685703467702]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.916946034130618e-06</v>
+        <v>9.151743758617492e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.916946034130618e-06</v>
+        <v>9.151743758617492e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>73.55643699101842</v>
+        <v>74.58533945850336</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[57.72875105564725, 89.38412292638958]</t>
+          <t>[58.052145777409, 91.1185331395977]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.957056904368983e-12</v>
+        <v>9.580336524095401e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>3.957056904368983e-12</v>
+        <v>9.580336524095401e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>7.683683683683839</v>
+        <v>6.52172172172186</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.85285285285295</v>
+        <v>3.464664664664737</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.51451451451473</v>
+        <v>9.578778778778982</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.25000000000051</v>
+        <v>25.45000000000054</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001521140300384527</v>
+        <v>0.02674208059126804</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001521140300384527</v>
+        <v>0.02674208059126804</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>51.98814288924252</v>
+        <v>31.55072471419547</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[22.57622222178469, 81.40006355670036]</t>
+          <t>[3.1664165457976736, 59.935032882593276]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0008888214480931023</v>
+        <v>0.03016030674582804</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0008888214480931023</v>
+        <v>0.03016030674582804</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.861684535460618</v>
+        <v>-1.660421342437848</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.47805306409285, -1.2453160068283866]</t>
+          <t>[-2.880579450138388, -0.44026323473730855]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.347537164659741e-07</v>
+        <v>0.008758197640762688</v>
       </c>
       <c r="S11" t="n">
-        <v>2.347537164659741e-07</v>
+        <v>0.008758197640762688</v>
       </c>
       <c r="T11" t="n">
-        <v>60.61456288017703</v>
+        <v>49.73028216478083</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.407382242324275, 76.82174351802978]</t>
+          <t>[33.30038823407597, 66.1601760954857]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.664244075882948e-09</v>
+        <v>2.246131707295262e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.664244075882948e-09</v>
+        <v>2.246131707295262e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>7.481481481481634</v>
+        <v>6.725525525525669</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.004504504504606</v>
+        <v>1.783283283283324</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.958458458458662</v>
+        <v>11.66776776776801</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.25000000000051</v>
+        <v>25.45000000000054</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007382308193188969</v>
+        <v>7.536757438875163e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0007382308193188969</v>
+        <v>7.536757438875163e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>53.6827206342948</v>
+        <v>60.32980989851517</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[19.69768295546845, 87.66775831312114]</t>
+          <t>[29.1857221712758, 91.47389762575453]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.002655039633189693</v>
+        <v>0.000316409492217673</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002655039633189693</v>
+        <v>0.000316409492217673</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.490632013656773</v>
+        <v>-2.868000500574466</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.1195794918529276, -1.861684535460618]</t>
+          <t>[-3.3963163822592364, -2.339684618889695]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.737710141393791e-10</v>
+        <v>2.953193245502916e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>3.737710141393791e-10</v>
+        <v>2.953193245502916e-14</v>
       </c>
       <c r="T12" t="n">
-        <v>76.21882950901909</v>
+        <v>69.72780291456066</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[57.9808258584745, 94.45683315956367]</t>
+          <t>[52.58167994346074, 86.87392588566057]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.584555288848605e-11</v>
+        <v>1.822202388979122e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>8.584555288848605e-11</v>
+        <v>1.822202388979122e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>10.00900900900921</v>
+        <v>11.61681681681706</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.481481481481632</v>
+        <v>9.476876876877075</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.53653653653679</v>
+        <v>13.75675675675705</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.25000000000051</v>
+        <v>25.45000000000054</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>8.379101727085114e-05</v>
+        <v>0.002205591893964187</v>
       </c>
       <c r="I13" t="n">
-        <v>8.379101727085114e-05</v>
+        <v>0.002205591893964187</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>60.18638117692768</v>
+        <v>49.52793517972903</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[26.61966465033374, 93.75309770352163]</t>
+          <t>[16.097135612962433, 82.95873474649564]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0007631372191787555</v>
+        <v>0.004586319979941189</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0007631372191787555</v>
+        <v>0.004586319979941189</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.465474114528927</v>
+        <v>-2.893158399702312</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.006368945777621, -1.9245792832802335]</t>
+          <t>[-3.673053272665544, -2.11326352673908]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>7.05724367833227e-12</v>
+        <v>2.046593783333606e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>7.05724367833227e-12</v>
+        <v>2.046593783333606e-09</v>
       </c>
       <c r="T13" t="n">
-        <v>66.8734590036255</v>
+        <v>67.66794891640424</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.3993388013606, 84.3475792058904]</t>
+          <t>[49.43605906311274, 85.89983876969575]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>9.202938411334571e-10</v>
+        <v>2.021063538748535e-09</v>
       </c>
       <c r="W13" t="n">
-        <v>9.202938411334571e-10</v>
+        <v>2.021063538748535e-09</v>
       </c>
       <c r="X13" t="n">
-        <v>9.907907907908109</v>
+        <v>11.71871871871897</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.73423423423439</v>
+        <v>8.55975975975994</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.08158158158183</v>
+        <v>14.87767767767799</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.25000000000051</v>
+        <v>25.45000000000054</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0006225932347880825</v>
+        <v>1.71468098824068e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0006225932347880825</v>
+        <v>1.71468098824068e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>50.20730588572653</v>
+        <v>66.57904783497762</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[20.256166255201947, 80.1584455162511]</t>
+          <t>[36.89182361599731, 96.26627205395792]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.001523111664854193</v>
+        <v>4.504899726942568e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001523111664854193</v>
+        <v>4.504899726942568e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.868000500574466</v>
+        <v>-2.993789996213696</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.534684827462391, -2.2013161736865414]</t>
+          <t>[-3.522105877898466, -2.4654741145289267]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.795896930114395e-11</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="S14" t="n">
-        <v>3.795896930114395e-11</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="T14" t="n">
-        <v>67.14861535936858</v>
+        <v>73.07673956457812</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[50.487658052072675, 83.80957266666448]</t>
+          <t>[55.78376776976356, 90.36971135939268]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.327060766305067e-10</v>
+        <v>6.289746501408899e-11</v>
       </c>
       <c r="W14" t="n">
-        <v>2.327060766305067e-10</v>
+        <v>6.289746501408899e-11</v>
       </c>
       <c r="X14" t="n">
-        <v>11.52552552552576</v>
+        <v>12.12632632632658</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.846346346346524</v>
+        <v>9.986386386386599</v>
       </c>
       <c r="Z14" t="n">
-        <v>14.204704704705</v>
+        <v>14.26626626626657</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_7_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_7_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.25000000000051</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.895722738010086e-06</v>
+        <v>0.0002374883024411911</v>
       </c>
       <c r="I2" t="n">
-        <v>1.895722738010086e-06</v>
+        <v>0.0002374883024411911</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>59.66221048547899</v>
+        <v>54.52901734139708</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[32.57714135249849, 86.74727961845949]</t>
+          <t>[22.41340563322153, 86.64462904957263]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>5.842482304929675e-05</v>
+        <v>0.001342522537979729</v>
       </c>
       <c r="O2" t="n">
-        <v>5.842482304929675e-05</v>
+        <v>0.001342522537979729</v>
       </c>
       <c r="P2" t="n">
-        <v>1.075500187715424</v>
+        <v>1.867974010242579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6100790538502707, 1.5409213215805782]</t>
+          <t>[1.2012896833546565, 2.5346583371305025]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.881253693542973e-05</v>
+        <v>1.053617329382917e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>2.881253693542973e-05</v>
+        <v>1.053617329382917e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>61.43154385530821</v>
+        <v>72.01186777270408</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.17948452922998, 75.68360318138645]</t>
+          <t>[54.041561462547534, 89.98217408286062]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.588795927100819e-11</v>
+        <v>2.717306379906859e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>3.588795927100819e-11</v>
+        <v>2.717306379906859e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>20.92792792792835</v>
+        <v>18.09459459459501</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.05755755755795</v>
+        <v>15.36236236236272</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.79829829829876</v>
+        <v>20.8268268268273</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.25000000000051</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.69810728081854e-06</v>
+        <v>4.955802030415235e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.69810728081854e-06</v>
+        <v>4.955802030415235e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>56.87253875958717</v>
+        <v>57.12427404326739</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[30.32285830655057, 83.42221921262376]</t>
+          <t>[29.56823600178879, 84.68031208474599]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.648873359717868e-05</v>
+        <v>0.0001346139898281695</v>
       </c>
       <c r="O3" t="n">
-        <v>8.648873359717868e-05</v>
+        <v>0.0001346139898281695</v>
       </c>
       <c r="P3" t="n">
-        <v>1.012605439895809</v>
+        <v>0.9245527929483472</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5471843060306538, 1.4780265737609648]</t>
+          <t>[0.45913165908319353, 1.389973926813501]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.964518546248577e-05</v>
+        <v>0.0002325529759841238</v>
       </c>
       <c r="S3" t="n">
-        <v>6.964518546248577e-05</v>
+        <v>0.0002325529759841238</v>
       </c>
       <c r="T3" t="n">
-        <v>61.89071627247141</v>
+        <v>67.62077415307053</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.08469576113013, 75.6967367838127]</t>
+          <t>[53.440618806592596, 81.80092949954846]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.153210860138643e-11</v>
+        <v>1.811883976188255e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.153210860138643e-11</v>
+        <v>1.811883976188255e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>21.18068068068111</v>
+        <v>21.96096096096146</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.31031031031069</v>
+        <v>20.05355355355401</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.05105105105152</v>
+        <v>23.86836836836891</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.25000000000051</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003074600776005187</v>
+        <v>0.04110256478279251</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003074600776005187</v>
+        <v>0.04110256478279251</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>52.34620857141648</v>
+        <v>31.86299624710958</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.69824734204157, 84.99416980079138]</t>
+          <t>[-0.9532387515725276, 64.67923124579168]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.00231974209031649</v>
+        <v>0.05673876861687188</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00231974209031649</v>
+        <v>0.05673876861687188</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9119738433844242</v>
+        <v>0.8993948938205012</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3333421634439615, 1.490605523324887]</t>
+          <t>[-0.8113422468730391, 2.6101320345140415]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.002708331939585085</v>
+        <v>0.2953029767944639</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002708331939585085</v>
+        <v>0.2953029767944639</v>
       </c>
       <c r="T4" t="n">
-        <v>62.37880955676815</v>
+        <v>62.31659480320715</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.544985768181846, 79.21263334535446]</t>
+          <t>[45.15776100338269, 79.47542860303162]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.104898033650215e-09</v>
+        <v>3.48695006202604e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>2.104898033650215e-09</v>
+        <v>3.48695006202604e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>21.58508508508552</v>
+        <v>22.06406406406457</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.25975975976015</v>
+        <v>15.0530530530534</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.91041041041089</v>
+        <v>29.07507507507574</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.25000000000051</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008929503845696574</v>
+        <v>0.0007563451859752268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008929503845696574</v>
+        <v>0.0007563451859752268</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>35.94764490943226</v>
+        <v>45.55640696243331</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[6.9837368884765, 64.91155293038801]</t>
+          <t>[20.11560240651376, 70.99721151835286]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01614227333938789</v>
+        <v>0.0007740101623168183</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01614227333938789</v>
+        <v>0.0007740101623168183</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5094474573388847</v>
+        <v>-0.07547369738353815</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.3522105877898465, 1.371105502467616]</t>
+          <t>[-0.767315923399309, 0.6163685286322327]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.2399678817421349</v>
+        <v>0.8270826215554887</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2399678817421349</v>
+        <v>0.8270826215554887</v>
       </c>
       <c r="T5" t="n">
-        <v>66.7655245223981</v>
+        <v>62.80721261504615</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[51.328027251878986, 82.20302179291721]</t>
+          <t>[47.47091715697687, 78.14350807311543]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.259903458285862e-11</v>
+        <v>1.503508428868372e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>3.259903458285862e-11</v>
+        <v>1.503508428868372e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>23.20270270270317</v>
+        <v>0.3093093093093131</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.73998998999039</v>
+        <v>-2.526026026026089</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.66541541541595</v>
+        <v>3.144644644644715</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.25000000000051</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004632973754676084</v>
+        <v>0.0008198784192587905</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004632973754676084</v>
+        <v>0.0008198784192587905</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>46.83658882795964</v>
+        <v>47.55538807285402</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[13.695006034393458, 79.97817162152582]</t>
+          <t>[21.55157258637645, 73.55920355933158]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.006637254244109103</v>
+        <v>0.0006150405920508639</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006637254244109103</v>
+        <v>0.0006150405920508639</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2830263651882694</v>
+        <v>0.01886842434588409</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5597632555945777, 1.1258159859711165]</t>
+          <t>[-0.6855527512338098, 0.723289599925578]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.5022625480788236</v>
+        <v>0.9572144420968303</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5022625480788236</v>
+        <v>0.9572144420968303</v>
       </c>
       <c r="T6" t="n">
-        <v>67.02943057522316</v>
+        <v>55.77254212949778</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.399305958567126, 85.65955519187919]</t>
+          <t>[39.722699843996736, 71.82238441499882]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.396834230036006e-09</v>
+        <v>1.022730256039495e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>4.396834230036006e-09</v>
+        <v>1.022730256039495e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>24.1126126126131</v>
+        <v>25.67267267267326</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.72572572572614</v>
+        <v>22.7857857857863</v>
       </c>
       <c r="Z6" t="n">
-        <v>27.49949949950005</v>
+        <v>28.55955955956021</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.25000000000051</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001239142248212755</v>
+        <v>0.001174240912584668</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001239142248212755</v>
+        <v>0.001174240912584668</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>43.88045872423756</v>
+        <v>46.74567004401797</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[13.735011009897008, 74.02590643857812]</t>
+          <t>[14.836624726200398, 78.65471536183554]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.005281799303205048</v>
+        <v>0.005020140573004594</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005281799303205048</v>
+        <v>0.005020140573004594</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.6037895790683088</v>
+        <v>-0.4151053356094625</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, 0.07547369738353815]</t>
+          <t>[-1.1321054607530785, 0.3018947895341535]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.08013264357139427</v>
+        <v>0.2497333381930307</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08013264357139427</v>
+        <v>0.2497333381930307</v>
       </c>
       <c r="T7" t="n">
-        <v>64.65849197335655</v>
+        <v>62.85683769781686</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.80140383023466, 80.51558011647843]</t>
+          <t>[46.15644889376577, 79.55722650186794]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.693669648972218e-10</v>
+        <v>1.414869554849929e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.693669648972218e-10</v>
+        <v>1.414869554849929e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>2.426426426426477</v>
+        <v>1.70120120120124</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.3033033033033066</v>
+        <v>-1.237237237237264</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.156156156156261</v>
+        <v>4.639639639639744</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.45000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.352541515761921e-05</v>
+        <v>1.96846804856321e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>4.352541515761921e-05</v>
+        <v>1.96846804856321e-07</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>44.59758003159163</v>
+        <v>63.75855295870927</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[19.89720004092658, 69.29796002225669]</t>
+          <t>[36.757344422260175, 90.75976149515836]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0007078111493774575</v>
+        <v>2.063640807592471e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0007078111493774575</v>
+        <v>2.063640807592471e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.8931054190385392</v>
+        <v>-0.9560001668581553</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.434000250287232, -0.3522105877898465]</t>
+          <t>[-1.3836844520315408, -0.5283158816847697]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.001762562262686895</v>
+        <v>4.727549788952068e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001762562262686895</v>
+        <v>4.727549788952068e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>61.54150630277946</v>
+        <v>73.61136630630133</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.64113037779408, 74.44188222776484]</t>
+          <t>[59.63481159154307, 87.5879210210596]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.790789738720377e-12</v>
+        <v>7.926992395823618e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.790789738720377e-12</v>
+        <v>7.926992395823618e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>3.617517517517594</v>
+        <v>3.879879879879962</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.426626626626659</v>
+        <v>2.144144144144188</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.80840840840853</v>
+        <v>5.615615615615735</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.45000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001378489277603756</v>
+        <v>4.028705571146318e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001378489277603756</v>
+        <v>4.028705571146318e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.50293556281895</v>
+        <v>60.78470902422819</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[20.696475227109318, 82.30939589852858]</t>
+          <t>[33.09236857101486, 88.47704947744153]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001563416426712649</v>
+        <v>6.144792541995514e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001563416426712649</v>
+        <v>6.144792541995514e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.559789745926464</v>
+        <v>-1.25789495639231</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.364842518017542, -0.754736973835386]</t>
+          <t>[-1.7862108380770794, -0.7295790747075399]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0003156624976066169</v>
+        <v>1.811681623542505e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0003156624976066169</v>
+        <v>1.811681623542505e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>68.51033489453204</v>
+        <v>85.26463508688289</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.210074899590246, 87.81059488947383]</t>
+          <t>[69.72481750385556, 100.80445266991022]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.11942341244287e-09</v>
+        <v>2.065014825802791e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>6.11942341244287e-09</v>
+        <v>2.065014825802791e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>6.317917917918052</v>
+        <v>5.105105105105213</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.057057057057122</v>
+        <v>2.960960960961025</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.578778778778982</v>
+        <v>7.249249249249402</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.45000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007823125990416013</v>
+        <v>0.01406243741793323</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007823125990416013</v>
+        <v>0.01406243741793323</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>46.37107065694269</v>
+        <v>36.19785620745066</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[20.072205468173067, 72.66993584571232]</t>
+          <t>[4.533391768013132, 67.86232064688818]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0009122142330559857</v>
+        <v>0.02598897812436296</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0009122142330559857</v>
+        <v>0.02598897812436296</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.610105544182156</v>
+        <v>-2.289368820634004</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.364842518017542, -0.8553685703467702]</t>
+          <t>[-3.069263693597236, -1.509473947670772]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.151743758617492e-05</v>
+        <v>4.212151734073188e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>9.151743758617492e-05</v>
+        <v>4.212151734073188e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>74.58533945850336</v>
+        <v>66.06723461260847</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[58.052145777409, 91.1185331395977]</t>
+          <t>[49.4235067421974, 82.71096248301956]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.580336524095401e-12</v>
+        <v>3.50556472739072e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>9.580336524095401e-12</v>
+        <v>3.50556472739072e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>6.52172172172186</v>
+        <v>9.291291291291493</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.464664664664737</v>
+        <v>6.12612612612626</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.578778778778982</v>
+        <v>12.45645645645673</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.45000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02674208059126804</v>
+        <v>1.35973376710341e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02674208059126804</v>
+        <v>1.35973376710341e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>31.55072471419547</v>
+        <v>59.80400352691323</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[3.1664165457976736, 59.935032882593276]</t>
+          <t>[31.772813497217484, 87.83519355660897]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.03016030674582804</v>
+        <v>9.143075585393845e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03016030674582804</v>
+        <v>9.143075585393845e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.660421342437848</v>
+        <v>-1.974895081535927</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.880579450138388, -0.44026323473730855]</t>
+          <t>[-2.490632013656773, -1.4591581494150803]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.008758197640762688</v>
+        <v>9.062179895380496e-10</v>
       </c>
       <c r="S11" t="n">
-        <v>0.008758197640762688</v>
+        <v>9.062179895380496e-10</v>
       </c>
       <c r="T11" t="n">
-        <v>49.73028216478083</v>
+        <v>61.88065891951081</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[33.30038823407597, 66.1601760954857]</t>
+          <t>[45.90470165083041, 77.85661618819123]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.246131707295262e-07</v>
+        <v>6.71802391494225e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>2.246131707295262e-07</v>
+        <v>6.71802391494225e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>6.725525525525669</v>
+        <v>8.015015015015191</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.783283283283324</v>
+        <v>5.921921921922055</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.66776776776801</v>
+        <v>10.10810810810833</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.45000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>7.536757438875163e-05</v>
+        <v>6.387205221503045e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>7.536757438875163e-05</v>
+        <v>6.387205221503045e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>60.32980989851517</v>
+        <v>52.5311037871689</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[29.1857221712758, 91.47389762575453]</t>
+          <t>[27.622680392290675, 77.43952718204713]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.000316409492217673</v>
+        <v>0.0001070044203266285</v>
       </c>
       <c r="O12" t="n">
-        <v>0.000316409492217673</v>
+        <v>0.0001070044203266285</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.868000500574466</v>
+        <v>-2.125842476303003</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.3963163822592364, -2.339684618889695]</t>
+          <t>[-2.616421509296004, -1.6352634433100017]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.953193245502916e-14</v>
+        <v>3.08300052154209e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>2.953193245502916e-14</v>
+        <v>3.08300052154209e-11</v>
       </c>
       <c r="T12" t="n">
-        <v>69.72780291456066</v>
+        <v>53.22718796103374</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[52.58167994346074, 86.87392588566057]</t>
+          <t>[39.909613524626266, 66.54476239744122]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.822202388979122e-10</v>
+        <v>2.916671348884847e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.822202388979122e-10</v>
+        <v>2.916671348884847e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>11.61681681681706</v>
+        <v>8.62762762762781</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.476876876877075</v>
+        <v>6.636636636636775</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.75675675675705</v>
+        <v>10.61861861861884</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.45000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002205591893964187</v>
+        <v>1.403368586105902e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002205591893964187</v>
+        <v>1.403368586105902e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>49.52793517972903</v>
+        <v>51.05290139216502</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[16.097135612962433, 82.95873474649564]</t>
+          <t>[28.947163150198108, 73.15863963413193]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.004586319979941189</v>
+        <v>2.906502031430058e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004586319979941189</v>
+        <v>2.906502031430058e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.893158399702312</v>
+        <v>-3.044105794469389</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.673053272665544, -2.11326352673908]</t>
+          <t>[-3.559842726590237, -2.528368862348542]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.046593783333606e-09</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="S13" t="n">
-        <v>2.046593783333606e-09</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="T13" t="n">
-        <v>67.66794891640424</v>
+        <v>58.98285324015347</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.43605906311274, 85.89983876969575]</t>
+          <t>[45.87725110079795, 72.088455379509]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.021063538748535e-09</v>
+        <v>1.027156137922702e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>2.021063538748535e-09</v>
+        <v>1.027156137922702e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>11.71871871871897</v>
+        <v>12.35435435435462</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.55975975975994</v>
+        <v>10.26126126126148</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.87767767767799</v>
+        <v>14.44744744744776</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.45000000000054</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.71468098824068e-05</v>
+        <v>0.01725606902653498</v>
       </c>
       <c r="I14" t="n">
-        <v>1.71468098824068e-05</v>
+        <v>0.01725606902653498</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>66.57904783497762</v>
+        <v>44.22252421518672</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[36.89182361599731, 96.26627205395792]</t>
+          <t>[8.656775438437862, 79.78827299193559]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.504899726942568e-05</v>
+        <v>0.01595982559232278</v>
       </c>
       <c r="O14" t="n">
-        <v>4.504899726942568e-05</v>
+        <v>0.01595982559232278</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.993789996213696</v>
+        <v>3.012658420559581</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.522105877898466, -2.4654741145289267]</t>
+          <t>[1.9686056067539637, 4.056711234365198]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>5.936905320691466e-07</v>
       </c>
       <c r="S14" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>5.936905320691466e-07</v>
       </c>
       <c r="T14" t="n">
-        <v>73.07673956457812</v>
+        <v>71.1888467713934</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[55.78376776976356, 90.36971135939268]</t>
+          <t>[50.549838597804325, 91.82785494498248]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>6.289746501408899e-11</v>
+        <v>1.220678713664824e-08</v>
       </c>
       <c r="W14" t="n">
-        <v>6.289746501408899e-11</v>
+        <v>1.220678713664824e-08</v>
       </c>
       <c r="X14" t="n">
-        <v>12.12632632632658</v>
+        <v>13.27327327327356</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.986386386386599</v>
+        <v>9.036036036036229</v>
       </c>
       <c r="Z14" t="n">
-        <v>14.26626626626657</v>
+        <v>17.51051051051089</v>
       </c>
     </row>
   </sheetData>
